--- a/latin-parallel/texts-latin/=progress-latin.xlsx
+++ b/latin-parallel/texts-latin/=progress-latin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cojor\Google Drive\Sacred Music - Jorgensen\santissimo-nome\latin-parallel\texts-latin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cojor\Documents\GitHub\santissimo-nome\latin-parallel\texts-latin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05A6310-3604-4AE9-B53B-61F93FBFA9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A15FB48-D042-4F5A-B614-8EDBC09A8472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{C023B4B4-53A5-4D58-9310-1C65202DBCED}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{C023B4B4-53A5-4D58-9310-1C65202DBCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1184,6 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1193,7 +1194,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1510,27 +1510,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A34D1D9-374D-4536-909F-DC34292C7F35}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1670,231 +1670,231 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -1908,57 +1908,57 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:4" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>73</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>77</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>89</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>97</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>101</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>113</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -2378,15 +2378,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>17</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>37</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>41</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>45</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>49</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>53</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>57</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>61</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>69</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>73</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>93</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>97</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>255</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>113</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>117</v>
       </c>
@@ -2792,15 +2792,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>13</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>25</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>29</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>33</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>37</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>45</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>49</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>53</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>57</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>61</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>65</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>69</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>73</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>77</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>81</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>85</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>304</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>308</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>93</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>97</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>101</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>105</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>109</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>113</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>117</v>
       </c>
